--- a/文档/数据库字典.xlsx
+++ b/文档/数据库字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="数据库字典" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
   <si>
     <t>表明</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>用户是否为教师</t>
+  </si>
+  <si>
+    <t>1 教师</t>
+  </si>
+  <si>
+    <t>0学员</t>
   </si>
 </sst>
 </file>
@@ -343,12 +349,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,27 +372,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,8 +436,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,32 +466,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,10 +483,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,23 +505,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,6 +528,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -541,7 +624,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,19 +678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,133 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,6 +713,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -735,32 +773,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,196 +799,172 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1318,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1382,157 +1377,157 @@
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
         <v>10</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
         <v>10</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
         <v>10</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
         <v>10</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="3">
-        <v>16</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="2">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2">
         <v>2147483647</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1541,95 +1536,95 @@
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="3">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
         <v>10</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>50</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>50</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="3">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="2">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2">
         <v>2147483647</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1638,95 +1633,95 @@
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="3">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
         <v>10</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>50</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>50</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="3">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12" s="2">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2">
         <v>2147483647</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1735,95 +1730,95 @@
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
         <v>10</v>
       </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>50</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>50</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="3">
-        <v>16</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="H15" s="2">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2">
         <v>2147483647</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1832,157 +1827,157 @@
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="3">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
         <v>10</v>
       </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="2">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2">
         <v>10</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="3">
-        <v>4</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="3">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
         <v>10</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2" t="s">
         <v>58</v>
       </c>
@@ -1991,126 +1986,126 @@
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="3">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="2">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
         <v>10</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="3">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="3">
-        <v>16</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="H24" s="2">
+        <v>16</v>
+      </c>
+      <c r="I24" s="2">
         <v>2147483647</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
         <v>68</v>
       </c>
@@ -2119,188 +2114,188 @@
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="3">
-        <v>4</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="H25" s="2">
+        <v>4</v>
+      </c>
+      <c r="I25" s="2">
         <v>10</v>
       </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="3">
-        <v>4</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="H28" s="2">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2">
         <v>10</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="3">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="H29" s="2">
+        <v>4</v>
+      </c>
+      <c r="I29" s="2">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="3">
-        <v>16</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="H30" s="2">
+        <v>16</v>
+      </c>
+      <c r="I30" s="2">
         <v>2147483647</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
         <v>82</v>
       </c>
@@ -2309,188 +2304,188 @@
       <c r="A31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="3">
-        <v>4</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2">
         <v>10</v>
       </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2">
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="3">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="H32" s="2">
+        <v>4</v>
+      </c>
+      <c r="I32" s="2">
         <v>10</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="3">
-        <v>16</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="H33" s="2">
+        <v>16</v>
+      </c>
+      <c r="I33" s="2">
         <v>2147483647</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2">
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>100</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>100</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="3">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="H35" s="2">
+        <v>4</v>
+      </c>
+      <c r="I35" s="2">
         <v>10</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="3">
-        <v>4</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="H36" s="2">
+        <v>4</v>
+      </c>
+      <c r="I36" s="2">
         <v>10</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
         <v>96</v>
       </c>
@@ -2499,87 +2494,87 @@
       <c r="A37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="3">
-        <v>4</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="H37" s="2">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2">
         <v>10</v>
       </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>50</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <v>50</v>
       </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3">
+    <row r="39" spans="1:15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="3">
-        <v>4</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="H39" s="2">
+        <v>4</v>
+      </c>
+      <c r="I39" s="2">
         <v>10</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -2591,106 +2586,12 @@
       <c r="M39" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="5:7">
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="5:7">
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="5:7">
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="5:7">
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="5:7">
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="5:7">
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="5:7">
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="5:7">
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="5:7">
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="5:7">
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="5:7">
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="5:7">
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="N39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="E8:G64">
